--- a/Assets/Resources/Datas/Monster.xlsx
+++ b/Assets/Resources/Datas/Monster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Arthur\Assets\Resources\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942091F2-8FC6-4A43-9881-871BA2B04A60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62056F85-CFB4-4125-BB5B-0F16B49A0A3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="1785" windowWidth="18990" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1485" windowWidth="23625" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Monster</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,11 +63,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Big</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TestSkill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Changer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefDirectionChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImagePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Changer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsPush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어를 미는지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestBoss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultiHit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,68 +457,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="16.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Assets/Resources/Datas/Monster.xlsx
+++ b/Assets/Resources/Datas/Monster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Arthur\Assets\Resources\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62056F85-CFB4-4125-BB5B-0F16B49A0A3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785F9AF8-8B49-4C47-A255-2E58770E5D52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1485" windowWidth="23625" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="1875" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
   <si>
     <t>Monster</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TestSkill1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Changer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,14 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Changer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,6 +120,162 @@
   </si>
   <si>
     <t>Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefenceType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomDirection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamagedDirection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어하는 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tiny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomDirectionAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도구 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/MonsterTool/Pot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToolPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/MonsterTool/PotAxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpperAxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monster/Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monster/Boss1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monster/Changer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FastHand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FastStab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/MonsterTool/PotSpear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monster/TinyMonster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/MonsterTool/Gem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어 시 검이 받는 피해율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwordDamageRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SnakeStab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SnakeStrongTwoAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SnakeSlow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monster/Snake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/MonsterTool/Spear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monster/FastHand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeepCurrentDirection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3StageBoss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShoulderCharge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StunAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackJumpHeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monster/3StageBoss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/MonsterTool/Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestBoss_Mini</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,35 +601,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="22.25" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="6" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="9" max="9" width="19.875" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -494,13 +644,22 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -511,7 +670,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -520,39 +679,57 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -562,19 +739,28 @@
       <c r="C5">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>9</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -582,37 +768,215 @@
       <c r="C6">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>250</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>250</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
         <v>26</v>
       </c>
-      <c r="C7">
+      <c r="J10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>300</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
         <v>100</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
